--- a/StructureDefinition-us-cbs-condition.xlsx
+++ b/StructureDefinition-us-cbs-condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="361">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -475,19 +475,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>diagnosis-date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://cbsig.chai.gatech.edu/StructureDefinition/cbs-diagnosis-date}
-</t>
-  </si>
-  <si>
-    <t>Case Based Surveillance Diagnosis Date Extension</t>
-  </si>
-  <si>
-    <t>A dateTime indicating when the condition of interest was diagnosed.</t>
   </si>
   <si>
     <t>case-class-status</t>
@@ -1487,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2723,7 +2710,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>90</v>
@@ -2840,7 +2827,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>90</v>
@@ -2945,34 +2932,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>156</v>
       </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>158</v>
@@ -2980,8 +2965,12 @@
       <c r="L13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3029,7 +3018,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3053,7 +3042,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3064,11 +3053,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3081,25 +3070,25 @@
         <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3148,7 +3137,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>80</v>
@@ -3160,10 +3149,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3172,18 +3161,18 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3194,32 +3183,30 @@
         <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3243,13 +3230,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3267,34 +3252,34 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3302,7 +3287,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3325,16 +3310,16 @@
         <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3360,11 +3345,11 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3382,7 +3367,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
@@ -3391,33 +3376,33 @@
         <v>90</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AO16" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3425,31 +3410,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3475,11 +3460,11 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3497,42 +3482,42 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3540,13 +3525,13 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3555,16 +3540,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3590,11 +3575,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3612,16 +3599,16 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>102</v>
@@ -3630,58 +3617,58 @@
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3705,13 +3692,11 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -3729,7 +3714,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -3744,38 +3729,38 @@
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>91</v>
@@ -3787,18 +3772,18 @@
         <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -3822,11 +3807,11 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -3844,13 +3829,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -3859,38 +3844,38 @@
         <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>91</v>
@@ -3902,18 +3887,18 @@
         <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -3937,35 +3922,37 @@
         <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -3974,41 +3961,41 @@
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4017,18 +4004,18 @@
         <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4076,10 +4063,10 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>90</v>
@@ -4091,19 +4078,19 @@
         <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4111,7 +4098,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4125,7 +4112,7 @@
         <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4134,16 +4121,16 @@
         <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4181,19 +4168,17 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -4208,29 +4193,31 @@
         <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B24" s="2"/>
+      <c r="B24" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4251,16 +4238,16 @@
         <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4298,17 +4285,19 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -4323,31 +4312,29 @@
         <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4359,25 +4346,25 @@
         <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4415,19 +4402,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -4436,35 +4421,37 @@
         <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM25" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B26" s="2"/>
+      <c r="B26" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4476,7 +4463,7 @@
         <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4485,16 +4472,16 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4532,17 +4519,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>80</v>
@@ -4551,7 +4540,7 @@
         <v>90</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>102</v>
@@ -4566,22 +4555,20 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4593,26 +4580,24 @@
         <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -4661,7 +4646,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>80</v>
@@ -4670,7 +4655,7 @@
         <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>102</v>
@@ -4682,13 +4667,13 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -4696,7 +4681,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4719,13 +4704,13 @@
         <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4776,7 +4761,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -4797,13 +4782,13 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -4811,7 +4796,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4834,13 +4819,13 @@
         <v>91</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4891,7 +4876,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>80</v>
@@ -4912,13 +4897,13 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -4926,7 +4911,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4937,7 +4922,7 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -4946,16 +4931,16 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5006,19 +4991,19 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5027,13 +5012,13 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5041,7 +5026,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5052,7 +5037,7 @@
         <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5064,13 +5049,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>298</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5121,19 +5106,19 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5145,7 +5130,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5156,18 +5141,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5179,15 +5164,17 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5236,19 +5223,19 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -5260,7 +5247,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5275,7 +5262,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5288,24 +5275,26 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>135</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5353,7 +5342,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>80</v>
@@ -5377,7 +5366,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5388,30 +5377,30 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>314</v>
@@ -5419,12 +5408,8 @@
       <c r="L34" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5448,13 +5433,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -5472,31 +5457,31 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5507,7 +5492,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5518,7 +5503,7 @@
         <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -5530,13 +5515,13 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5563,40 +5548,40 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AF35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>102</v>
@@ -5605,13 +5590,13 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5622,7 +5607,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5633,7 +5618,7 @@
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -5645,7 +5630,7 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>326</v>
+        <v>173</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>327</v>
@@ -5678,13 +5663,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5702,16 +5687,16 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
@@ -5726,7 +5711,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5735,9 +5720,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5748,10 +5733,10 @@
         <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5760,15 +5745,17 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5793,13 +5780,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -5817,19 +5804,19 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>336</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>79</v>
@@ -5841,7 +5828,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -5850,9 +5837,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5863,10 +5850,10 @@
         <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -5875,17 +5862,15 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>298</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -5934,19 +5919,19 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
@@ -5958,7 +5943,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -5969,18 +5954,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -5992,15 +5977,17 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6049,19 +6036,19 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6073,7 +6060,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6084,11 +6071,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6101,24 +6088,26 @@
         <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>135</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6166,7 +6155,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>80</v>
@@ -6190,7 +6179,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6201,11 +6190,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6218,26 +6207,22 @@
         <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6261,13 +6246,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6285,7 +6270,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>80</v>
@@ -6294,25 +6279,25 @@
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6320,7 +6305,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6343,13 +6328,13 @@
         <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6376,13 +6361,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6400,7 +6385,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>80</v>
@@ -6409,25 +6394,25 @@
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6455,7 +6440,7 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>355</v>
@@ -6524,147 +6509,32 @@
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO44">
+  <autoFilter ref="A1:AO43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6674,7 +6544,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-us-cbs-condition.xlsx
+++ b/StructureDefinition-us-cbs-condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
